--- a/biology/Zoologie/Coccinelle_de_Gotlib/Coccinelle_de_Gotlib.xlsx
+++ b/biology/Zoologie/Coccinelle_de_Gotlib/Coccinelle_de_Gotlib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La coccinelle est un personnage de bande dessinée créé par le Français Marcel Gotlib. Récurrente dans la Rubrique-à-brac, elle y commente l'action en arrière-plan, « pren[ant] systématiquement le contre-pied du récit[1] ». Elle a fait l'objet en 1995 d'une série animée, La Coccinelle de Gotlib, où elle commente des œuvres d'art.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coccinelle est un personnage de bande dessinée créé par le Français Marcel Gotlib. Récurrente dans la Rubrique-à-brac, elle y commente l'action en arrière-plan, « pren[ant] systématiquement le contre-pied du récit ». Elle a fait l'objet en 1995 d'une série animée, La Coccinelle de Gotlib, où elle commente des œuvres d'art.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Bande dessinée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coccinelle apparaît pour la première fois dans l'hebdomadaire jeunesse Pilote, dans la série humoristique Rubrique-à-brac.
-La coccinelle sert d'abord à remplir des cases qui, sans décor, paraissaient vides. D'abord muette, « elle s'est mise à parler, elle a eu un rôle à part entière, qui faisait que les gens lisaient deux fois chaque case. Certains étaient agacés, parce que ça parasitait[2]. » Elle joue le rôle d'une sorte de chœur antique, commentant ou contredisant ce qui est raconté dans la case où elle-même se trouve ; elle représente aussi souvent le commentaire de Gotlib lui-même[3].
+La coccinelle sert d'abord à remplir des cases qui, sans décor, paraissaient vides. D'abord muette, « elle s'est mise à parler, elle a eu un rôle à part entière, qui faisait que les gens lisaient deux fois chaque case. Certains étaient agacés, parce que ça parasitait. » Elle joue le rôle d'une sorte de chœur antique, commentant ou contredisant ce qui est raconté dans la case où elle-même se trouve ; elle représente aussi souvent le commentaire de Gotlib lui-même.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Animation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1995, Michel Lieure produit et réalise une série de 65 dessins animés de 46 secondes mettant en scène la coccinelle face à diverses œuvres du canon artistique européen[4]. Selon un chroniqueur d'Actua BD, Gotlib s'y montre « une fois de plus, comme le roi du détournement, caricaturant sans répit les plus grands succès de la culture populaire[5] ».
-Cette série animée débouche sur l'album Rubrique-à-brac Gallery en 1997, et sur un livre-DVD homonyme coécrit avec Bruno Léandri en 2006[6]. Citel Vidéo a réédité les épisodes seuls en 2014[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1995, Michel Lieure produit et réalise une série de 65 dessins animés de 46 secondes mettant en scène la coccinelle face à diverses œuvres du canon artistique européen. Selon un chroniqueur d'Actua BD, Gotlib s'y montre « une fois de plus, comme le roi du détournement, caricaturant sans répit les plus grands succès de la culture populaire ».
+Cette série animée débouche sur l'album Rubrique-à-brac Gallery en 1997, et sur un livre-DVD homonyme coécrit avec Bruno Léandri en 2006. Citel Vidéo a réédité les épisodes seuls en 2014.
 </t>
         </is>
       </c>
